--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H2">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.02374085369033333</v>
+        <v>0.2599955425057778</v>
       </c>
       <c r="R2">
-        <v>0.213667683213</v>
+        <v>2.339959882552</v>
       </c>
       <c r="S2">
-        <v>0.0006882026455133892</v>
+        <v>0.00509615690913098</v>
       </c>
       <c r="T2">
-        <v>0.0006882026455133892</v>
+        <v>0.005096156909130981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H3">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
-        <v>0.04184070959711112</v>
+        <v>0.06486586672177778</v>
       </c>
       <c r="R3">
-        <v>0.376566386374</v>
+        <v>0.583792800496</v>
       </c>
       <c r="S3">
-        <v>0.001212883387028912</v>
+        <v>0.001271431931774796</v>
       </c>
       <c r="T3">
-        <v>0.001212883387028911</v>
+        <v>0.001271431931774796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H4">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>22.97702651322567</v>
+        <v>38.28748452584266</v>
       </c>
       <c r="R4">
-        <v>206.793238619031</v>
+        <v>344.587360732584</v>
       </c>
       <c r="S4">
-        <v>0.6660607339015689</v>
+        <v>0.7504706693011191</v>
       </c>
       <c r="T4">
-        <v>0.6660607339015689</v>
+        <v>0.7504706693011192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G5">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H5">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I5">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J5">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.01941311538211111</v>
+        <v>0.04265603112888889</v>
       </c>
       <c r="R5">
-        <v>0.174718038439</v>
+        <v>0.3839042801600001</v>
       </c>
       <c r="S5">
-        <v>0.000562749660896375</v>
+        <v>0.0008360982871418363</v>
       </c>
       <c r="T5">
-        <v>0.000562749660896375</v>
+        <v>0.0008360982871418364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.6816</v>
       </c>
       <c r="I6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N6">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q6">
-        <v>0.0117714592</v>
+        <v>0.08315391253333332</v>
       </c>
       <c r="R6">
-        <v>0.1059431328</v>
+        <v>0.7483852127999999</v>
       </c>
       <c r="S6">
-        <v>0.0003412324370749778</v>
+        <v>0.001629894812018182</v>
       </c>
       <c r="T6">
-        <v>0.0003412324370749778</v>
+        <v>0.001629894812018182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.6816</v>
       </c>
       <c r="I7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.273934</v>
       </c>
       <c r="O7">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P7">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q7">
         <v>0.02074593493333333</v>
@@ -883,10 +883,10 @@
         <v>0.1867134144</v>
       </c>
       <c r="S7">
-        <v>0.0006013855900464958</v>
+        <v>0.0004066398163135392</v>
       </c>
       <c r="T7">
-        <v>0.0006013855900464958</v>
+        <v>0.0004066398163135392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.6816</v>
       </c>
       <c r="I8">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J8">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N8">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q8">
-        <v>11.3927297504</v>
+        <v>12.2454181664</v>
       </c>
       <c r="R8">
-        <v>102.5345677536</v>
+        <v>110.2087634976</v>
       </c>
       <c r="S8">
-        <v>0.3302537834617475</v>
+        <v>0.2400217011124742</v>
       </c>
       <c r="T8">
-        <v>0.3302537834617476</v>
+        <v>0.2400217011124743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.6816</v>
       </c>
       <c r="I9">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J9">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N9">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O9">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P9">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q9">
-        <v>0.009625630933333332</v>
+        <v>0.01364260266666667</v>
       </c>
       <c r="R9">
-        <v>0.08663067839999999</v>
+        <v>0.122783424</v>
       </c>
       <c r="S9">
-        <v>0.0002790289161232982</v>
+        <v>0.0002674078300273823</v>
       </c>
       <c r="T9">
-        <v>0.0002790289161232982</v>
+        <v>0.0002674078300273823</v>
       </c>
     </row>
   </sheetData>
